--- a/StakeWithUs/evidence.xlsx
+++ b/StakeWithUs/evidence.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">omniflix1qhwqknxvc6598q3j74f3wkxad42j6007vjy5su</t>
   </si>
   <si>
-    <t xml:space="preserve">Jax | StakeWithUs#8830</t>
+    <t xml:space="preserve">Jax | StakeWithUs#8830, YH | StakeWithUs#6077</t>
   </si>
   <si>
     <t xml:space="preserve">set none if no community</t>
@@ -357,7 +357,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,7 +948,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1267,7 +1267,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
   </cols>
   <sheetData>
@@ -1317,7 +1317,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1374,7 +1374,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1431,7 +1431,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1488,7 +1488,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
